--- a/medicine/Enfance/Octave_Lebesgue/Octave_Lebesgue.xlsx
+++ b/medicine/Enfance/Octave_Lebesgue/Octave_Lebesgue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Octave Lebesgue dit Georges Montorgueil est un journaliste et écrivain français né le 5 novembre 1857 à Paris où il est mort le 24 avril 1933.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commença sa carrière à Lyon puis travailla à Paris  notamment à L'Écho de Paris. Il devint ensuite chef des informations à L'Éclair, et enfin rédacteur en chef au journal Le Temps jusqu’à sa mort.
 Il dirigea à partir de 1900 L'Intermédiaire des chercheurs et curieux, une publication, créée en 1864, de questions et réponses sur tous sujets et toutes curiosités.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Divers
 En 1885, en association avec Eugène Damien, ils écrivent  Chez la Nourrice, comédie en un acte, de MM. Eugène Damien et Lebesgue. Pièce jouée au Théâtre Beaumarchais.
@@ -558,7 +574,7 @@
 Robert Macaire, ill. de J.-P. Quint, Paris, Librairie Delagrave, 1928
 Blanc et Rouge, catalogue des vins Nicolas Drager, ill. de Paul Iribe, Paris, 1932
 Monseigneur le vin, catalogue des vins Nicolas Drager, ill. de Pierre Lissac, Paris, 1925
-Monseigneur le Vin, Livre Quatrième sur l'Anjou-Touraine, Alsace, Champagne[1]..., dessins de Carlègle, Etablissements Nicolas, Paris, 1927
+Monseigneur le Vin, Livre Quatrième sur l'Anjou-Touraine, Alsace, Champagne..., dessins de Carlègle, Etablissements Nicolas, Paris, 1927
 Livres pour enfants
 Illustrations d'Hermann Vogel :
 Henri IV roi de France et de Navarre
